--- a/assets/disciplinas/LOM3008.xlsx
+++ b/assets/disciplinas/LOM3008.xlsx
@@ -133,7 +133,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito fraco)
+    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3008.xlsx
+++ b/assets/disciplinas/LOM3008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Dotar os alunos de conhecimentos básicos sobre o uso da corrente elétrica como agente de redução de metais com aplicação nos processos eletrolíticos de extração, refino, revestimento e formação de peças.</t>
+    <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>144651 - Antonio Fernando Sartori</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Fundamentos da Eletrólise Aplicados a Eletrodeposição de Metais. Aplicações Industriais da Eletrodeposição.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Aplicações da Eletrodeposição. Fundamentos da Eletrólise Aplicada a Eletrodeposição de Metais: Potencial de Eletrodo. Dupla Camada Elétrica. Lei de Nernst. Células Galvânicas e Eletrolíticas. Processos Catódicos e Anódicos: Cinética Eletroquímica e Polarização dos Eletrodos. Corrente de Troca. Processos Galvanotécnicos e Eletrometalurgicos: Eletrorrevestimento, Eletroformação de Peças, Eletrorrefino, Eletroextração e Eletrodeposição de ligas. Aplicações industriais: Eletrodeposição de níquel, cromo, cobre, ouro, prata, estanho e nióbio. Eletroextração de Alumínio.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Serão usadas duas notas P1 e P2. A P1 será uma prova escrita e a P2 será a soma de uma nota de seminário e uma nota de trabalho escrito.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final(MF) = (P1 + 2P2)/3 MF menor que 3,0 - reprovado. MF maior,ou igual, a 3,0 até menor que 5,0 - recuperação. MF maior, ou igual, a 5,0 - aprovado.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. Modern Electrochemistry, J.O.Bockris, A. K. N. Reddy, M. G. Aldeco, Plenum Publishing Corporation, 2a ed, 2000.2. Comprehensive Treatise of Eletrochemistry, Bockris, Kluwer Academic Pub, 1981.3. Modern Electroplating, F. Lowenhein, John Wiley and Sons, 3a ed, 1974.4. Modern electroplating, M. Schlesinger, M. Paunovic, Wiley-Interscience, 4a ed, 2000. 5. Fundamentals of Electochemical Deposition (Electrochemical Society Series), M. Paunovic, M. Schlesinger, Wiley-Interscience, 1998. 6.  ASM Handbook: Coating and Coating Processes for metals (Materials data series), J. Lindsay, ASM International, 1998.  7. Eletrodeposition of alloy, A.Brenner, Academic Press, 1963. 8. Denaro, A.R. Fundamentos de Eletroquímica. Editora Edgard Blucher, 1974.9. Electroplating, N. Kanani, Elsevier, 2004.10. Electrodeposition, J. W. Dini, Noyes Publications, 1993.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3008.xlsx
+++ b/assets/disciplinas/LOM3008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Dotar os alunos de conhecimentos básicos sobre o uso da corrente elétrica como agente de redução de metais com aplicação nos processos eletrolíticos de extração, refino, revestimento e formação de peças.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Fundamentos da Eletrólise Aplicados a Eletrodeposição de Metais. Aplicações Industriais da Eletrodeposição.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Aplicações da Eletrodeposição. Fundamentos da Eletrólise Aplicada a Eletrodeposição de Metais: Potencial de Eletrodo. Dupla Camada Elétrica. Lei de Nernst. Células Galvânicas e Eletrolíticas. Processos Catódicos e Anódicos: Cinética Eletroquímica e Polarização dos Eletrodos. Corrente de Troca. Processos Galvanotécnicos e Eletrometalurgicos: Eletrorrevestimento, Eletroformação de Peças, Eletrorrefino, Eletroextração e Eletrodeposição de ligas. Aplicações industriais: Eletrodeposição de níquel, cromo, cobre, ouro, prata, estanho e nióbio. Eletroextração de Alumínio.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>3577649 - Carlos Angelo Nunes</t>
+    <t>Serão usadas duas notas P1 e P2. A P1 será uma prova escrita e a P2 será a soma de uma nota de seminário e uma nota de trabalho escrito.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão usadas duas notas P1 e P2. A P1 será uma prova escrita e a P2 será a soma de uma nota de seminário e uma nota de trabalho escrito.</t>
+    <t>Média Final(MF) = (P1 + 2P2)/3 MF menor que 3,0 - reprovado. MF maior,ou igual, a 3,0 até menor que 5,0 - recuperação. MF maior, ou igual, a 5,0 - aprovado.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Final(MF) = (P1 + 2P2)/3 MF menor que 3,0 - reprovado. MF maior,ou igual, a 3,0 até menor que 5,0 - recuperação. MF maior, ou igual, a 5,0 - aprovado.</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
+    <t>1. Modern Electrochemistry, J.O.Bockris, A. K. N. Reddy, M. G. Aldeco, Plenum Publishing Corporation, 2a ed, 2000.2. Comprehensive Treatise of Eletrochemistry, Bockris, Kluwer Academic Pub, 1981.3. Modern Electroplating, F. Lowenhein, John Wiley and Sons, 3a ed, 1974.4. Modern electroplating, M. Schlesinger, M. Paunovic, Wiley-Interscience, 4a ed, 2000. 5. Fundamentals of Electochemical Deposition (Electrochemical Society Series), M. Paunovic, M. Schlesinger, Wiley-Interscience, 1998. 6.  ASM Handbook: Coating and Coating Processes for metals (Materials data series), J. Lindsay, ASM International, 1998.  7. Eletrodeposition of alloy, A.Brenner, Academic Press, 1963. 8. Denaro, A.R. Fundamentos de Eletroquímica. Editora Edgard Blucher, 1974.9. Electroplating, N. Kanani, Elsevier, 2004.10. Electrodeposition, J. W. Dini, Noyes Publications, 1993.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
